--- a/Resultados Multicore.xlsx
+++ b/Resultados Multicore.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SSF" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="RN" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="RN_float" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="RN_taylor" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t xml:space="preserve">clocks</t>
   </si>
@@ -217,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">21(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21(13)</t>
   </si>
 </sst>
 </file>
@@ -614,7 +618,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -840,8 +844,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="41879407"/>
-        <c:axId val="11478295"/>
+        <c:axId val="42885740"/>
+        <c:axId val="79145420"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1104,11 +1108,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17317820"/>
-        <c:axId val="93935120"/>
+        <c:axId val="47578251"/>
+        <c:axId val="14637975"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41879407"/>
+        <c:axId val="42885740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11478295"/>
+        <c:crossAx val="79145420"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11478295"/>
+        <c:axId val="79145420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,13 +1269,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41879407"/>
+        <c:crossAx val="42885740"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="17317820"/>
+        <c:axId val="47578251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,14 +1307,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93935120"/>
+        <c:crossAx val="14637975"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93935120"/>
+        <c:axId val="14637975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,8 +1350,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932758620689655"/>
-              <c:y val="0.0685174246898996"/>
+              <c:x val="0.932700180121172"/>
+              <c:y val="0.0680609712867777"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1381,7 +1385,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17317820"/>
+        <c:crossAx val="47578251"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1444,7 +1448,2443 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_float!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_float!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>65855524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54720176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47301106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41734840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38027450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34313020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32459600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30610360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28754278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26895732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25971244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25045348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24118176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23189860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22260532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21330324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21336902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20405176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20410984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19477960</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19540352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18605810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="41738244"/>
+        <c:axId val="17812224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="41738244"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17812224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="17812224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41738244"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="15272989"/>
+        <c:axId val="91014467"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de Atraso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.778125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.277492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.126966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.026891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.926463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.826599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.701005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.676374</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.651406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.626336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.601175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.575625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.551361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.526048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.525689</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="63897560"/>
+        <c:axId val="41582089"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15272989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional [mhz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91014467"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91014467"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15272989"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="63897560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41582089"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41582089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>tempo de atraso [microssegundos]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.932705363204345"/>
+              <c:y val="0.0679056468906362"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63897560"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.238795815970746"/>
+          <c:y val="0.105896366885051"/>
+          <c:w val="0.626807280149685"/>
+          <c:h val="0.12091970455087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>99743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65890</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44530</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40116</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35830</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33703</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31225</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="26349357"/>
+        <c:axId val="54811695"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ed7d31"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="41442571"/>
+        <c:axId val="82296598"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="26349357"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional [mhz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54811695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54811695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de elementos lógicos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26349357"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="41442571"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82296598"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82296598"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>número de multiplicadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41442571"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.286808118081181"/>
+          <c:y val="0.0703199617956065"/>
+          <c:w val="0.587415813266906"/>
+          <c:h val="0.146746268656716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>65855524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54720176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47301106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41734840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38027450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34313020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32459600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30610360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28754278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26895732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25971244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25045348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24118176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23189860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22260532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21330324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21336902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20405176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20410984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19477960</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19540352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>249840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="23362530"/>
+        <c:axId val="9771412"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="23362530"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="9771412"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="9771412"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23362530"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1670,8 +4110,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="177324"/>
-        <c:axId val="38321257"/>
+        <c:axId val="69720778"/>
+        <c:axId val="38478969"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1898,11 +4338,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63498128"/>
-        <c:axId val="68905782"/>
+        <c:axId val="90259477"/>
+        <c:axId val="40613365"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177324"/>
+        <c:axId val="69720778"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +4408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38321257"/>
+        <c:crossAx val="38478969"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1976,7 +4416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38321257"/>
+        <c:axId val="38478969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,13 +4499,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177324"/>
+        <c:crossAx val="69720778"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63498128"/>
+        <c:axId val="90259477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,14 +4537,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68905782"/>
+        <c:crossAx val="40613365"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68905782"/>
+        <c:axId val="40613365"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +4607,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63498128"/>
+        <c:crossAx val="90259477"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2230,7 +4670,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2415,11 +4855,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56784471"/>
-        <c:axId val="94856651"/>
+        <c:axId val="98620617"/>
+        <c:axId val="26378850"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56784471"/>
+        <c:axId val="98620617"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +4927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94856651"/>
+        <c:crossAx val="26378850"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +4935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94856651"/>
+        <c:axId val="26378850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +5018,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56784471"/>
+        <c:crossAx val="98620617"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2608,7 +5048,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2829,11 +5269,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="886316"/>
-        <c:axId val="45672259"/>
+        <c:axId val="57021196"/>
+        <c:axId val="32583168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="886316"/>
+        <c:axId val="57021196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +5341,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45672259"/>
+        <c:crossAx val="32583168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2909,7 +5349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45672259"/>
+        <c:axId val="32583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +5432,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="886316"/>
+        <c:crossAx val="57021196"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3020,7 +5460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3246,8 +5686,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="98194955"/>
-        <c:axId val="79776427"/>
+        <c:axId val="53911721"/>
+        <c:axId val="76647570"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3474,11 +5914,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90817999"/>
-        <c:axId val="80965414"/>
+        <c:axId val="63360488"/>
+        <c:axId val="33801411"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98194955"/>
+        <c:axId val="53911721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +5984,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79776427"/>
+        <c:crossAx val="76647570"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3552,7 +5992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79776427"/>
+        <c:axId val="76647570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,12 +6075,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98194955"/>
+        <c:crossAx val="53911721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="90817999"/>
+        <c:axId val="63360488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,14 +6112,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80965414"/>
+        <c:crossAx val="33801411"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80965414"/>
+        <c:axId val="33801411"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3715,8 +6155,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932743061467734"/>
-              <c:y val="0.0684849928537399"/>
+              <c:x val="0.932688226805874"/>
+              <c:y val="0.0680247796044794"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3750,7 +6190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90817999"/>
+        <c:crossAx val="63360488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3812,7 +6252,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4038,8 +6478,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="65758697"/>
-        <c:axId val="26838087"/>
+        <c:axId val="99291350"/>
+        <c:axId val="84068403"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4302,11 +6742,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="12057234"/>
-        <c:axId val="58186982"/>
+        <c:axId val="75685499"/>
+        <c:axId val="67732191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65758697"/>
+        <c:axId val="99291350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,7 +6812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26838087"/>
+        <c:crossAx val="84068403"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4380,7 +6820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26838087"/>
+        <c:axId val="84068403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,12 +6903,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65758697"/>
+        <c:crossAx val="99291350"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="12057234"/>
+        <c:axId val="75685499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4500,14 +6940,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58186982"/>
+        <c:crossAx val="67732191"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58186982"/>
+        <c:axId val="67732191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,7 +7010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12057234"/>
+        <c:crossAx val="75685499"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4632,7 +7072,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4853,11 +7293,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="73535121"/>
-        <c:axId val="49655198"/>
+        <c:axId val="47094993"/>
+        <c:axId val="21487311"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73535121"/>
+        <c:axId val="47094993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4925,7 +7365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49655198"/>
+        <c:crossAx val="21487311"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4933,7 +7373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49655198"/>
+        <c:axId val="21487311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,7 +7456,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73535121"/>
+        <c:crossAx val="47094993"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5044,7 +7484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5060,7 +7500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RN_float!$H$1</c:f>
+              <c:f>RN_float!$H$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5270,8 +7710,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="11226419"/>
-        <c:axId val="40076642"/>
+        <c:axId val="41572017"/>
+        <c:axId val="4233716"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5281,7 +7721,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RN_float!$O$1</c:f>
+              <c:f>RN_float!$O$1:$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5498,11 +7938,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="71709374"/>
-        <c:axId val="74302702"/>
+        <c:axId val="39918755"/>
+        <c:axId val="37476342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11226419"/>
+        <c:axId val="41572017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5568,7 +8008,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40076642"/>
+        <c:crossAx val="4233716"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5576,7 +8016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40076642"/>
+        <c:axId val="4233716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5659,12 +8099,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11226419"/>
+        <c:crossAx val="41572017"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="71709374"/>
+        <c:axId val="39918755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5696,14 +8136,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74302702"/>
+        <c:crossAx val="37476342"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74302702"/>
+        <c:axId val="37476342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,8 +8179,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932754511406197"/>
-              <c:y val="0.0684849928537399"/>
+              <c:x val="0.932705363204345"/>
+              <c:y val="0.0680247796044794"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5774,7 +8214,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71709374"/>
+        <c:crossAx val="39918755"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5836,7 +8276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5852,7 +8292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RN_float!$L$1</c:f>
+              <c:f>RN_float!$L$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6062,8 +8502,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="92462148"/>
-        <c:axId val="88058418"/>
+        <c:axId val="2331491"/>
+        <c:axId val="30411469"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6073,7 +8513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RN_float!$M$1</c:f>
+              <c:f>RN_float!$M$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6326,11 +8766,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="21649607"/>
-        <c:axId val="51097440"/>
+        <c:axId val="55136649"/>
+        <c:axId val="97223796"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92462148"/>
+        <c:axId val="2331491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6396,7 +8836,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88058418"/>
+        <c:crossAx val="30411469"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6404,7 +8844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88058418"/>
+        <c:axId val="30411469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6487,12 +8927,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92462148"/>
+        <c:crossAx val="2331491"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="21649607"/>
+        <c:axId val="55136649"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6524,14 +8964,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51097440"/>
+        <c:crossAx val="97223796"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51097440"/>
+        <c:axId val="97223796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6594,7 +9034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21649607"/>
+        <c:crossAx val="55136649"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6656,418 +9096,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart90.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_float!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_float!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>65855524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54720176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47301106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41734840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38027450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34313020</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32459600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30610360</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28754278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26895732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25971244</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25045348</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24118176</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23189860</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22260532</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21330324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21336902</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20405176</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20410984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19477960</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19540352</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18605810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="74716291"/>
-        <c:axId val="17454672"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="74716291"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="ed7d31">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17454672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="17454672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Bits de memória</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74716291"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7079,9 +9107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7089,8 +9117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13601880" y="47520"/>
-        <a:ext cx="4384440" cy="3047040"/>
+        <a:off x="13600080" y="47520"/>
+        <a:ext cx="4396680" cy="3046320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7109,9 +9137,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>426960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7119,8 +9147,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13586040" y="3174840"/>
-        <a:ext cx="4685760" cy="3015720"/>
+        <a:off x="13584240" y="3174840"/>
+        <a:ext cx="4698000" cy="3015000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7139,9 +9167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>459720</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7149,8 +9177,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18098280" y="79200"/>
-        <a:ext cx="3327120" cy="2697840"/>
+        <a:off x="18109440" y="79200"/>
+        <a:ext cx="3328560" cy="2697120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7169,9 +9197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>600840</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7179,8 +9207,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18405720" y="2856960"/>
-        <a:ext cx="4386240" cy="3018960"/>
+        <a:off x="18416880" y="2856960"/>
+        <a:ext cx="4391640" cy="3018240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7204,9 +9232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7214,8 +9242,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17544240" y="170280"/>
-        <a:ext cx="4228200" cy="3022200"/>
+        <a:off x="17563320" y="170280"/>
+        <a:ext cx="4240800" cy="3021480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7234,9 +9262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7244,8 +9272,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12885840" y="45360"/>
-        <a:ext cx="4546800" cy="3015360"/>
+        <a:off x="12895560" y="45360"/>
+        <a:ext cx="4555440" cy="3014640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7264,9 +9292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7274,8 +9302,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21936240" y="156240"/>
-        <a:ext cx="4210560" cy="2756160"/>
+        <a:off x="21970440" y="156240"/>
+        <a:ext cx="4221360" cy="2755440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7299,9 +9327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7309,8 +9337,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16774200" y="170280"/>
-        <a:ext cx="4228920" cy="3022200"/>
+        <a:off x="16782840" y="170280"/>
+        <a:ext cx="4241880" cy="3021480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7329,9 +9357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7339,8 +9367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12764160" y="45360"/>
-        <a:ext cx="3898440" cy="3015360"/>
+        <a:off x="12761640" y="45360"/>
+        <a:ext cx="3908880" cy="3014640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7359,9 +9387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>588960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7369,8 +9397,103 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21165840" y="156240"/>
-        <a:ext cx="4210920" cy="2756160"/>
+        <a:off x="21189960" y="156240"/>
+        <a:ext cx="4221720" cy="2755440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>504720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16782840" y="170280"/>
+        <a:ext cx="4241880" cy="3021480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>232560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>453600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12761640" y="45360"/>
+        <a:ext cx="3908880" cy="3014640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>588960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21189960" y="156240"/>
+        <a:ext cx="4221720" cy="2755440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7394,7 +9517,7 @@
       <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.71"/>
@@ -7404,7 +9527,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.42"/>
@@ -8754,14 +10877,14 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.43"/>
@@ -8770,7 +10893,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.86"/>
   </cols>
   <sheetData>
@@ -9984,22 +12107,21 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="8.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="12.64"/>
@@ -11191,6 +13313,1237 @@
       </c>
       <c r="N23" s="28" t="n">
         <v>18605810</v>
+      </c>
+      <c r="O23" s="17" t="n">
+        <f aca="false">F23/1000</f>
+        <v>0.5005</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="16.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">1/B2*1000000</f>
+        <v>3125</v>
+      </c>
+      <c r="D2" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>1775</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1778.125</v>
+      </c>
+      <c r="G2" s="30" t="n">
+        <v>46.875</v>
+      </c>
+      <c r="H2" s="24" t="n">
+        <f aca="false">ROUNDUP(E2/D2,0)</f>
+        <v>71</v>
+      </c>
+      <c r="I2" s="17" t="n">
+        <f aca="false">1/J2*1000000</f>
+        <v>320</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <f aca="false">ROUNDUP(C2,0)</f>
+        <v>3125</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="26" t="n">
+        <v>99743</v>
+      </c>
+      <c r="M2" s="27" t="n">
+        <v>312</v>
+      </c>
+      <c r="N2" s="28" t="n">
+        <v>65855524</v>
+      </c>
+      <c r="O2" s="17" t="n">
+        <f aca="false">F2/1000</f>
+        <v>1.778125</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">1/B3*1000000</f>
+        <v>2500</v>
+      </c>
+      <c r="D3" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1477.5</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H3" s="24" t="n">
+        <f aca="false">ROUNDUP(E3/D3,0)</f>
+        <v>59</v>
+      </c>
+      <c r="I3" s="17" t="n">
+        <f aca="false">1/J3*1000000</f>
+        <v>400</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <f aca="false">ROUNDUP(C3,0)</f>
+        <v>2500</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="26" t="n">
+        <v>85105</v>
+      </c>
+      <c r="M3" s="27" t="n">
+        <v>312</v>
+      </c>
+      <c r="N3" s="28" t="n">
+        <v>54720176</v>
+      </c>
+      <c r="O3" s="17" t="n">
+        <f aca="false">F3/1000</f>
+        <v>1.4775</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">1/B4*1000000</f>
+        <v>2083.33333333333</v>
+      </c>
+      <c r="D4" s="22" t="n">
+        <v>25.008</v>
+      </c>
+      <c r="E4" s="31" t="n">
+        <v>1275.408</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1277.492</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>39.596</v>
+      </c>
+      <c r="H4" s="24" t="n">
+        <f aca="false">ROUNDUP(E4/D4,0)</f>
+        <v>51</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <f aca="false">1/J4*1000000</f>
+        <v>479.846449136276</v>
+      </c>
+      <c r="J4" s="25" t="n">
+        <f aca="false">ROUNDUP(C4,0)</f>
+        <v>2084</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="26" t="n">
+        <v>74162</v>
+      </c>
+      <c r="M4" s="27" t="n">
+        <v>252</v>
+      </c>
+      <c r="N4" s="28" t="n">
+        <v>47301106</v>
+      </c>
+      <c r="O4" s="17" t="n">
+        <f aca="false">F4/1000</f>
+        <v>1.277492</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">1/B5*1000000</f>
+        <v>1785.71428571429</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>25.004</v>
+      </c>
+      <c r="E5" s="31" t="n">
+        <v>1125.18</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1126.966</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>37.506</v>
+      </c>
+      <c r="H5" s="24" t="n">
+        <f aca="false">ROUNDUP(E5/D5,0)</f>
+        <v>45</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <f aca="false">1/J5*1000000</f>
+        <v>559.910414333707</v>
+      </c>
+      <c r="J5" s="25" t="n">
+        <f aca="false">ROUNDUP(C5,0)</f>
+        <v>1786</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="26" t="n">
+        <v>65890</v>
+      </c>
+      <c r="M5" s="27" t="n">
+        <v>252</v>
+      </c>
+      <c r="N5" s="28" t="n">
+        <v>41734840</v>
+      </c>
+      <c r="O5" s="17" t="n">
+        <f aca="false">F5/1000</f>
+        <v>1.126966</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">1/B6*1000000</f>
+        <v>1562.5</v>
+      </c>
+      <c r="D6" s="22" t="n">
+        <v>25.008</v>
+      </c>
+      <c r="E6" s="31" t="n">
+        <v>1025.328</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1026.891</v>
+      </c>
+      <c r="G6" s="30" t="n">
+        <v>35.949</v>
+      </c>
+      <c r="H6" s="24" t="n">
+        <f aca="false">ROUNDUP(E6/D6,0)</f>
+        <v>41</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <f aca="false">1/J6*1000000</f>
+        <v>639.795265515035</v>
+      </c>
+      <c r="J6" s="25" t="n">
+        <f aca="false">ROUNDUP(C6,0)</f>
+        <v>1563</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="26" t="n">
+        <v>60042</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>252</v>
+      </c>
+      <c r="N6" s="28" t="n">
+        <v>38027450</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <f aca="false">F6/1000</f>
+        <v>1.026891</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">1/B7*1000000</f>
+        <v>1388.88888888889</v>
+      </c>
+      <c r="D7" s="22" t="n">
+        <v>25.002</v>
+      </c>
+      <c r="E7" s="31" t="n">
+        <v>925.074</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>926.463</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>34.725</v>
+      </c>
+      <c r="H7" s="24" t="n">
+        <f aca="false">ROUNDUP(E7/D7,0)</f>
+        <v>37</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <f aca="false">1/J7*1000000</f>
+        <v>719.942404607631</v>
+      </c>
+      <c r="J7" s="25" t="n">
+        <f aca="false">ROUNDUP(C7,0)</f>
+        <v>1389</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="26" t="n">
+        <v>54748</v>
+      </c>
+      <c r="M7" s="27" t="n">
+        <v>252</v>
+      </c>
+      <c r="N7" s="28" t="n">
+        <v>34313020</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <f aca="false">F7/1000</f>
+        <v>0.926463</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">1/B8*1000000</f>
+        <v>1250</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" s="31" t="n">
+        <v>875</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>876.25</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="H8" s="32" t="n">
+        <f aca="false">ROUNDUP(E8/D8,0)</f>
+        <v>35</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <f aca="false">1/J8*1000000</f>
+        <v>800</v>
+      </c>
+      <c r="J8" s="25" t="n">
+        <f aca="false">ROUNDUP(C8,0)</f>
+        <v>1250</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="26" t="n">
+        <v>52099</v>
+      </c>
+      <c r="M8" s="27" t="n">
+        <v>245</v>
+      </c>
+      <c r="N8" s="28" t="n">
+        <v>32459600</v>
+      </c>
+      <c r="O8" s="17" t="n">
+        <f aca="false">F8/1000</f>
+        <v>0.87625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">1/B9*1000000</f>
+        <v>1136.36363636364</v>
+      </c>
+      <c r="D9" s="22" t="n">
+        <v>25.014</v>
+      </c>
+      <c r="E9" s="31" t="n">
+        <v>825.462</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>826.599</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>32.973</v>
+      </c>
+      <c r="H9" s="24" t="n">
+        <f aca="false">ROUNDUP(E9/D9,0)</f>
+        <v>33</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <f aca="false">1/J9*1000000</f>
+        <v>879.507475813545</v>
+      </c>
+      <c r="J9" s="25" t="n">
+        <f aca="false">ROUNDUP(C9,0)</f>
+        <v>1137</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="26" t="n">
+        <v>49497</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>231</v>
+      </c>
+      <c r="N9" s="28" t="n">
+        <v>30610360</v>
+      </c>
+      <c r="O9" s="17" t="n">
+        <f aca="false">F9/1000</f>
+        <v>0.826599</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">1/B10*1000000</f>
+        <v>1041.66666666667</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>25.008</v>
+      </c>
+      <c r="E10" s="31" t="n">
+        <v>775.248</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>776.29</v>
+      </c>
+      <c r="G10" s="30" t="n">
+        <v>32.302</v>
+      </c>
+      <c r="H10" s="24" t="n">
+        <f aca="false">ROUNDUP(E10/D10,0)</f>
+        <v>31</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <f aca="false">1/J10*1000000</f>
+        <v>959.692898272553</v>
+      </c>
+      <c r="J10" s="25" t="n">
+        <f aca="false">ROUNDUP(C10,0)</f>
+        <v>1042</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="26" t="n">
+        <v>46763</v>
+      </c>
+      <c r="M10" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N10" s="28" t="n">
+        <v>28754278</v>
+      </c>
+      <c r="O10" s="17" t="n">
+        <f aca="false">F10/1000</f>
+        <v>0.77629</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">1/B11*1000000</f>
+        <v>961.538461538462</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>25.012</v>
+      </c>
+      <c r="E11" s="31" t="n">
+        <v>725.348</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>726.31</v>
+      </c>
+      <c r="G11" s="30" t="n">
+        <v>31.746</v>
+      </c>
+      <c r="H11" s="24" t="n">
+        <f aca="false">ROUNDUP(E11/D11,0)</f>
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <f aca="false">1/J11*1000000</f>
+        <v>1039.50103950104</v>
+      </c>
+      <c r="J11" s="25" t="n">
+        <f aca="false">ROUNDUP(C11,0)</f>
+        <v>962</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="26" t="n">
+        <v>44530</v>
+      </c>
+      <c r="M11" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N11" s="28" t="n">
+        <v>26895732</v>
+      </c>
+      <c r="O11" s="17" t="n">
+        <f aca="false">F11/1000</f>
+        <v>0.72631</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">1/B12*1000000</f>
+        <v>892.857142857143</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <v>25.004</v>
+      </c>
+      <c r="E12" s="31" t="n">
+        <v>700.112</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>701.005</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <v>31.255</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <f aca="false">ROUNDUP(E12/D12,0)</f>
+        <v>28</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <f aca="false">1/J12*1000000</f>
+        <v>1119.82082866741</v>
+      </c>
+      <c r="J12" s="25" t="n">
+        <f aca="false">ROUNDUP(C12,0)</f>
+        <v>893</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="26" t="n">
+        <v>43085</v>
+      </c>
+      <c r="M12" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N12" s="28" t="n">
+        <v>25971244</v>
+      </c>
+      <c r="O12" s="17" t="n">
+        <f aca="false">F12/1000</f>
+        <v>0.701005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">1/B13*1000000</f>
+        <v>833.333333333333</v>
+      </c>
+      <c r="D13" s="22" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="E13" s="31" t="n">
+        <v>675.54</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>676.374</v>
+      </c>
+      <c r="G13" s="30" t="n">
+        <v>30.858</v>
+      </c>
+      <c r="H13" s="24" t="n">
+        <f aca="false">ROUNDUP(E13/D13,0)</f>
+        <v>27</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <f aca="false">1/J13*1000000</f>
+        <v>1199.04076738609</v>
+      </c>
+      <c r="J13" s="25" t="n">
+        <f aca="false">ROUNDUP(C13,0)</f>
+        <v>834</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="26" t="n">
+        <v>41912</v>
+      </c>
+      <c r="M13" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N13" s="28" t="n">
+        <v>25045348</v>
+      </c>
+      <c r="O13" s="17" t="n">
+        <f aca="false">F13/1000</f>
+        <v>0.676374</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <f aca="false">1/B14*1000000</f>
+        <v>781.25</v>
+      </c>
+      <c r="D14" s="22" t="n">
+        <v>25.024</v>
+      </c>
+      <c r="E14" s="31" t="n">
+        <v>650.624</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>651.406</v>
+      </c>
+      <c r="G14" s="30" t="n">
+        <v>30.498</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <f aca="false">ROUNDUP(E14/D14,0)</f>
+        <v>26</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <f aca="false">1/J14*1000000</f>
+        <v>1278.77237851662</v>
+      </c>
+      <c r="J14" s="25" t="n">
+        <f aca="false">ROUNDUP(C14,0)</f>
+        <v>782</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="26" t="n">
+        <v>40116</v>
+      </c>
+      <c r="M14" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N14" s="28" t="n">
+        <v>24118176</v>
+      </c>
+      <c r="O14" s="17" t="n">
+        <f aca="false">F14/1000</f>
+        <v>0.651406</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">1/B15*1000000</f>
+        <v>735.294117647059</v>
+      </c>
+      <c r="D15" s="22" t="n">
+        <v>25.024</v>
+      </c>
+      <c r="E15" s="31" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>626.336</v>
+      </c>
+      <c r="G15" s="30" t="n">
+        <v>30.176</v>
+      </c>
+      <c r="H15" s="24" t="n">
+        <f aca="false">ROUNDUP(E15/D15,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <f aca="false">1/J15*1000000</f>
+        <v>1358.69565217391</v>
+      </c>
+      <c r="J15" s="25" t="n">
+        <f aca="false">ROUNDUP(C15,0)</f>
+        <v>736</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="26" t="n">
+        <v>38959</v>
+      </c>
+      <c r="M15" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N15" s="28" t="n">
+        <v>23189860</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <f aca="false">F15/1000</f>
+        <v>0.626336</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <f aca="false">1/B16*1000000</f>
+        <v>694.444444444444</v>
+      </c>
+      <c r="D16" s="22" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="E16" s="31" t="n">
+        <v>600.48</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>601.175</v>
+      </c>
+      <c r="G16" s="30" t="n">
+        <v>29.885</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <f aca="false">ROUNDUP(E16/D16,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <f aca="false">1/J16*1000000</f>
+        <v>1438.84892086331</v>
+      </c>
+      <c r="J16" s="25" t="n">
+        <f aca="false">ROUNDUP(C16,0)</f>
+        <v>695</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="26" t="n">
+        <v>37280</v>
+      </c>
+      <c r="M16" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N16" s="28" t="n">
+        <v>22260532</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <f aca="false">F16/1000</f>
+        <v>0.601175</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <f aca="false">1/B17*1000000</f>
+        <v>657.894736842105</v>
+      </c>
+      <c r="D17" s="22" t="n">
+        <v>25.004</v>
+      </c>
+      <c r="E17" s="31" t="n">
+        <v>575.092</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>575.75</v>
+      </c>
+      <c r="G17" s="30" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="H17" s="24" t="n">
+        <f aca="false">ROUNDUP(E17/D17,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <f aca="false">1/J17*1000000</f>
+        <v>1519.75683890578</v>
+      </c>
+      <c r="J17" s="25" t="n">
+        <f aca="false">ROUNDUP(C17,0)</f>
+        <v>658</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="26" t="n">
+        <v>35827</v>
+      </c>
+      <c r="M17" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N17" s="28" t="n">
+        <v>21330324</v>
+      </c>
+      <c r="O17" s="17" t="n">
+        <f aca="false">F17/1000</f>
+        <v>0.57575</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <f aca="false">1/B18*1000000</f>
+        <v>625</v>
+      </c>
+      <c r="D18" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" s="31" t="n">
+        <v>575</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>575.625</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>29.375</v>
+      </c>
+      <c r="H18" s="24" t="n">
+        <f aca="false">ROUNDUP(E18/D18,0)</f>
+        <v>23</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <f aca="false">1/J18*1000000</f>
+        <v>1600</v>
+      </c>
+      <c r="J18" s="25" t="n">
+        <f aca="false">ROUNDUP(C18,0)</f>
+        <v>625</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="26" t="n">
+        <v>35830</v>
+      </c>
+      <c r="M18" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N18" s="28" t="n">
+        <v>21336902</v>
+      </c>
+      <c r="O18" s="17" t="n">
+        <f aca="false">F18/1000</f>
+        <v>0.575625</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <f aca="false">1/B19*1000000</f>
+        <v>595.238095238095</v>
+      </c>
+      <c r="D19" s="22" t="n">
+        <v>25.032</v>
+      </c>
+      <c r="E19" s="31" t="n">
+        <v>550.704</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>551.3</v>
+      </c>
+      <c r="G19" s="30" t="n">
+        <v>29.204</v>
+      </c>
+      <c r="H19" s="24" t="n">
+        <f aca="false">ROUNDUP(E19/D19,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <f aca="false">1/J19*1000000</f>
+        <v>1677.85234899329</v>
+      </c>
+      <c r="J19" s="25" t="n">
+        <f aca="false">ROUNDUP(C19,0)</f>
+        <v>596</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="26" t="n">
+        <v>34904</v>
+      </c>
+      <c r="M19" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N19" s="28" t="n">
+        <v>20405176</v>
+      </c>
+      <c r="O19" s="17" t="n">
+        <f aca="false">F19/1000</f>
+        <v>0.5513</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <f aca="false">1/B20*1000000</f>
+        <v>568.181818181818</v>
+      </c>
+      <c r="D20" s="22" t="n">
+        <v>25.036</v>
+      </c>
+      <c r="E20" s="31" t="n">
+        <v>550.792</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>551.361</v>
+      </c>
+      <c r="G20" s="30" t="n">
+        <v>29.019</v>
+      </c>
+      <c r="H20" s="24" t="n">
+        <f aca="false">ROUNDUP(E20/D20,0)</f>
+        <v>22</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <f aca="false">1/J20*1000000</f>
+        <v>1757.46924428823</v>
+      </c>
+      <c r="J20" s="25" t="n">
+        <f aca="false">ROUNDUP(C20,0)</f>
+        <v>569</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="26" t="n">
+        <v>34908</v>
+      </c>
+      <c r="M20" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N20" s="28" t="n">
+        <v>20410984</v>
+      </c>
+      <c r="O20" s="17" t="n">
+        <f aca="false">F20/1000</f>
+        <v>0.551361</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">1/B21*1000000</f>
+        <v>543.478260869565</v>
+      </c>
+      <c r="D21" s="22" t="n">
+        <v>25.024</v>
+      </c>
+      <c r="E21" s="31" t="n">
+        <v>525.504</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>526.048</v>
+      </c>
+      <c r="G21" s="30" t="n">
+        <v>28.832</v>
+      </c>
+      <c r="H21" s="24" t="n">
+        <f aca="false">ROUNDUP(E21/D21,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <f aca="false">1/J21*1000000</f>
+        <v>1838.23529411765</v>
+      </c>
+      <c r="J21" s="25" t="n">
+        <f aca="false">ROUNDUP(C21,0)</f>
+        <v>544</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="26" t="n">
+        <v>33703</v>
+      </c>
+      <c r="M21" s="27" t="n">
+        <v>132</v>
+      </c>
+      <c r="N21" s="28" t="n">
+        <v>19477960</v>
+      </c>
+      <c r="O21" s="17" t="n">
+        <f aca="false">F21/1000</f>
+        <v>0.526048</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <f aca="false">1/B22*1000000</f>
+        <v>520.833333333333</v>
+      </c>
+      <c r="D22" s="22" t="n">
+        <v>25.008</v>
+      </c>
+      <c r="E22" s="31" t="n">
+        <v>525.168</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>525.689</v>
+      </c>
+      <c r="G22" s="30" t="n">
+        <v>28.655</v>
+      </c>
+      <c r="H22" s="24" t="n">
+        <f aca="false">ROUNDUP(E22/D22,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <f aca="false">1/J22*1000000</f>
+        <v>1919.38579654511</v>
+      </c>
+      <c r="J22" s="25" t="n">
+        <f aca="false">ROUNDUP(C22,0)</f>
+        <v>521</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="26" t="n">
+        <v>31225</v>
+      </c>
+      <c r="M22" s="27" t="n">
+        <v>112</v>
+      </c>
+      <c r="N22" s="28" t="n">
+        <v>19540352</v>
+      </c>
+      <c r="O22" s="17" t="n">
+        <f aca="false">F22/1000</f>
+        <v>0.525689</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <f aca="false">1/B23*1000000</f>
+        <v>500</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" s="31" t="n">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>500.5</v>
+      </c>
+      <c r="G23" s="30" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H23" s="24" t="n">
+        <f aca="false">ROUNDUP(E23/D23,0)</f>
+        <v>20</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <f aca="false">1/J23*1000000</f>
+        <v>2000</v>
+      </c>
+      <c r="J23" s="25" t="n">
+        <f aca="false">ROUNDUP(C23,0)</f>
+        <v>500</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="26" t="n">
+        <v>23790</v>
+      </c>
+      <c r="M23" s="27" t="n">
+        <v>112</v>
+      </c>
+      <c r="N23" s="28" t="n">
+        <v>249840</v>
       </c>
       <c r="O23" s="17" t="n">
         <f aca="false">F23/1000</f>

--- a/Resultados Multicore.xlsx
+++ b/Resultados Multicore.xlsx
@@ -277,7 +277,7 @@
     <t xml:space="preserve">20(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">21(12)</t>
+    <t xml:space="preserve">21(4)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +717,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -943,8 +943,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="28070936"/>
-        <c:axId val="44516588"/>
+        <c:axId val="91008961"/>
+        <c:axId val="37478212"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1207,11 +1207,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="38418977"/>
-        <c:axId val="13537390"/>
+        <c:axId val="14811437"/>
+        <c:axId val="11638567"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28070936"/>
+        <c:axId val="91008961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44516588"/>
+        <c:crossAx val="37478212"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44516588"/>
+        <c:axId val="37478212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,13 +1368,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28070936"/>
+        <c:crossAx val="91008961"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="38418977"/>
+        <c:axId val="14811437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1406,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13537390"/>
+        <c:crossAx val="11638567"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13537390"/>
+        <c:axId val="11638567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,8 +1449,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932684442990349"/>
-              <c:y val="0.0678326636728906"/>
+              <c:x val="0.932663234452889"/>
+              <c:y val="0.0676043020919513"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1484,7 +1484,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38418977"/>
+        <c:crossAx val="14811437"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1547,7 +1547,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1773,8 +1773,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="96657017"/>
-        <c:axId val="96363087"/>
+        <c:axId val="71347837"/>
+        <c:axId val="5366730"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2001,11 +2001,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48343479"/>
-        <c:axId val="80046700"/>
+        <c:axId val="64045010"/>
+        <c:axId val="32947993"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96657017"/>
+        <c:axId val="71347837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2071,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96363087"/>
+        <c:crossAx val="5366730"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96363087"/>
+        <c:axId val="5366730"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,13 +2162,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96657017"/>
+        <c:crossAx val="71347837"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="48343479"/>
+        <c:axId val="64045010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +2200,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80046700"/>
+        <c:crossAx val="32947993"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80046700"/>
+        <c:axId val="32947993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48343479"/>
+        <c:crossAx val="64045010"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2333,7 +2333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2518,11 +2518,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76109786"/>
-        <c:axId val="40153922"/>
+        <c:axId val="48181803"/>
+        <c:axId val="45689125"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76109786"/>
+        <c:axId val="48181803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2590,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40153922"/>
+        <c:crossAx val="45689125"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40153922"/>
+        <c:axId val="45689125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76109786"/>
+        <c:crossAx val="48181803"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2711,7 +2711,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2932,11 +2932,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68773756"/>
-        <c:axId val="61127793"/>
+        <c:axId val="62603721"/>
+        <c:axId val="76537442"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68773756"/>
+        <c:axId val="62603721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61127793"/>
+        <c:crossAx val="76537442"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +3012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61127793"/>
+        <c:axId val="76537442"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68773756"/>
+        <c:crossAx val="62603721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,7 +3123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3349,8 +3349,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="74408961"/>
-        <c:axId val="63221396"/>
+        <c:axId val="62297466"/>
+        <c:axId val="46338492"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3577,11 +3577,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="51936416"/>
-        <c:axId val="60842291"/>
+        <c:axId val="76883409"/>
+        <c:axId val="50020654"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74408961"/>
+        <c:axId val="62297466"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63221396"/>
+        <c:crossAx val="46338492"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,7 +3655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63221396"/>
+        <c:axId val="46338492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,12 +3738,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74408961"/>
+        <c:crossAx val="62297466"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="51936416"/>
+        <c:axId val="76883409"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,14 +3775,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60842291"/>
+        <c:crossAx val="50020654"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60842291"/>
+        <c:axId val="50020654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,8 +3818,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932671924022725"/>
-              <c:y val="0.0677945907303705"/>
+              <c:x val="0.932649949169773"/>
+              <c:y val="0.0675643469971401"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3853,7 +3853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51936416"/>
+        <c:crossAx val="76883409"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,7 +3915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4141,8 +4141,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="56913557"/>
-        <c:axId val="34427402"/>
+        <c:axId val="72487722"/>
+        <c:axId val="28803578"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4405,11 +4405,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48607344"/>
-        <c:axId val="40118534"/>
+        <c:axId val="96186709"/>
+        <c:axId val="47707695"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56913557"/>
+        <c:axId val="72487722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +4475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34427402"/>
+        <c:crossAx val="28803578"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +4483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34427402"/>
+        <c:axId val="28803578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,12 +4566,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56913557"/>
+        <c:crossAx val="72487722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="48607344"/>
+        <c:axId val="96186709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,14 +4603,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40118534"/>
+        <c:crossAx val="47707695"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40118534"/>
+        <c:axId val="47707695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48607344"/>
+        <c:crossAx val="96186709"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4735,7 +4735,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4956,11 +4956,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="85852624"/>
-        <c:axId val="57214327"/>
+        <c:axId val="53645054"/>
+        <c:axId val="37027378"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85852624"/>
+        <c:axId val="53645054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57214327"/>
+        <c:crossAx val="37027378"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57214327"/>
+        <c:axId val="37027378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,7 +5119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85852624"/>
+        <c:crossAx val="53645054"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5147,7 +5147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5373,8 +5373,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="74912351"/>
-        <c:axId val="46369197"/>
+        <c:axId val="44593404"/>
+        <c:axId val="53710011"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5601,11 +5601,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45820289"/>
-        <c:axId val="5162466"/>
+        <c:axId val="11882890"/>
+        <c:axId val="56795227"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74912351"/>
+        <c:axId val="44593404"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,7 +5671,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46369197"/>
+        <c:crossAx val="53710011"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5679,7 +5679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46369197"/>
+        <c:axId val="53710011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,12 +5762,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74912351"/>
+        <c:crossAx val="44593404"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="45820289"/>
+        <c:axId val="11882890"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,14 +5799,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5162466"/>
+        <c:crossAx val="56795227"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5162466"/>
+        <c:axId val="56795227"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,8 +5842,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.93267763269459"/>
-              <c:y val="0.0677945907303705"/>
+              <c:x val="0.932661358631204"/>
+              <c:y val="0.0675643469971401"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5877,7 +5877,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45820289"/>
+        <c:crossAx val="11882890"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5939,7 +5939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6165,8 +6165,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="61042488"/>
-        <c:axId val="97490976"/>
+        <c:axId val="81090190"/>
+        <c:axId val="70926375"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6429,11 +6429,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22708362"/>
-        <c:axId val="1548012"/>
+        <c:axId val="22649284"/>
+        <c:axId val="71701219"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61042488"/>
+        <c:axId val="81090190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6499,7 +6499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97490976"/>
+        <c:crossAx val="70926375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6507,7 +6507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97490976"/>
+        <c:axId val="70926375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,12 +6590,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61042488"/>
+        <c:crossAx val="81090190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="22708362"/>
+        <c:axId val="22649284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,14 +6627,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548012"/>
+        <c:crossAx val="71701219"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548012"/>
+        <c:axId val="71701219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,7 +6697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22708362"/>
+        <c:crossAx val="22649284"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6759,7 +6759,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6980,11 +6980,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79819668"/>
-        <c:axId val="63684723"/>
+        <c:axId val="8168800"/>
+        <c:axId val="68702193"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79819668"/>
+        <c:axId val="8168800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7052,7 +7052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63684723"/>
+        <c:crossAx val="68702193"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7060,7 +7060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63684723"/>
+        <c:axId val="68702193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,7 +7143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79819668"/>
+        <c:crossAx val="8168800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7171,7 +7171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7397,8 +7397,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="36292610"/>
-        <c:axId val="66916125"/>
+        <c:axId val="13742825"/>
+        <c:axId val="54270548"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7625,11 +7625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="53148098"/>
-        <c:axId val="74944309"/>
+        <c:axId val="48420810"/>
+        <c:axId val="13215352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36292610"/>
+        <c:axId val="13742825"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7695,7 +7695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66916125"/>
+        <c:crossAx val="54270548"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7703,7 +7703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66916125"/>
+        <c:axId val="54270548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7786,12 +7786,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36292610"/>
+        <c:crossAx val="13742825"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="53148098"/>
+        <c:axId val="48420810"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7823,14 +7823,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74944309"/>
+        <c:crossAx val="13215352"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74944309"/>
+        <c:axId val="13215352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7866,8 +7866,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.93267763269459"/>
-              <c:y val="0.0676754438222328"/>
+              <c:x val="0.932661358631204"/>
+              <c:y val="0.0674451858913251"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7901,7 +7901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53148098"/>
+        <c:crossAx val="48420810"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7963,7 +7963,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8117,68 +8117,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
-                <c:pt idx="1">
-                  <c:v>69307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59442</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52108</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40811</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38346</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35872</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34653</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32362</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31148</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29882</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28627</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28640</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27477</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26206</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26212</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24972</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24983</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23697</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>23676</c:v>
+                  <c:v>23810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8186,8 +8126,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="40190793"/>
-        <c:axId val="28942013"/>
+        <c:axId val="70025098"/>
+        <c:axId val="84299406"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8371,66 +8311,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
-                <c:pt idx="1">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>112</c:v>
-                </c:pt>
                 <c:pt idx="21">
                   <c:v>112</c:v>
                 </c:pt>
@@ -8447,11 +8327,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97226232"/>
-        <c:axId val="65907723"/>
+        <c:axId val="7206594"/>
+        <c:axId val="46437200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40190793"/>
+        <c:axId val="70025098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8517,7 +8397,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28942013"/>
+        <c:crossAx val="84299406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8525,7 +8405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28942013"/>
+        <c:axId val="84299406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8608,12 +8488,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40190793"/>
+        <c:crossAx val="70025098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97226232"/>
+        <c:axId val="7206594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8645,14 +8525,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65907723"/>
+        <c:crossAx val="46437200"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65907723"/>
+        <c:axId val="46437200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8715,7 +8595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97226232"/>
+        <c:crossAx val="7206594"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8777,7 +8657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8919,68 +8799,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
-                <c:pt idx="1">
-                  <c:v>513822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>450450</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>401676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>372360</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>351648</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>326706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>313248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>297270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>294756</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>274833</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>262725</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>255096</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>263736</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>254472</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>244398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>251658</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>240219</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>246834</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>234180</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>236580</c:v>
+                  <c:v>259280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8995,11 +8815,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="2655234"/>
-        <c:axId val="81796697"/>
+        <c:axId val="23455176"/>
+        <c:axId val="71451243"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2655234"/>
+        <c:axId val="23455176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9067,7 +8887,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81796697"/>
+        <c:crossAx val="71451243"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9075,7 +8895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81796697"/>
+        <c:axId val="71451243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,7 +8978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2655234"/>
+        <c:crossAx val="23455176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9197,9 +9017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9207,8 +9027,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13889160" y="47520"/>
-        <a:ext cx="4401000" cy="3045960"/>
+        <a:off x="13889880" y="47520"/>
+        <a:ext cx="4404960" cy="3045600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9227,9 +9047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9237,8 +9057,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13873320" y="2931120"/>
-        <a:ext cx="4702320" cy="3014640"/>
+        <a:off x="13874040" y="2931120"/>
+        <a:ext cx="4706280" cy="3014280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9257,9 +9077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
+      <xdr:colOff>458280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9267,8 +9087,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18403200" y="79200"/>
-        <a:ext cx="3328560" cy="2696760"/>
+        <a:off x="18408240" y="79200"/>
+        <a:ext cx="3328560" cy="2696400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9287,9 +9107,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9297,8 +9117,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18710640" y="2628720"/>
-        <a:ext cx="4392720" cy="3017880"/>
+        <a:off x="18715680" y="2628720"/>
+        <a:ext cx="4394160" cy="3017520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9322,9 +9142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>503640</xdr:colOff>
+      <xdr:colOff>503280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9332,8 +9152,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17569080" y="170280"/>
-        <a:ext cx="4245120" cy="3021120"/>
+        <a:off x="17574840" y="170280"/>
+        <a:ext cx="4249080" cy="3020760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9352,9 +9172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9362,8 +9182,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12898080" y="45360"/>
-        <a:ext cx="4558320" cy="3014280"/>
+        <a:off x="12900600" y="45360"/>
+        <a:ext cx="4561200" cy="3013920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9382,9 +9202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>588240</xdr:colOff>
+      <xdr:colOff>587880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9392,8 +9212,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21981240" y="156240"/>
-        <a:ext cx="4224600" cy="2755080"/>
+        <a:off x="21992040" y="156240"/>
+        <a:ext cx="4228200" cy="2754720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9417,9 +9237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9427,8 +9247,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16787520" y="170280"/>
-        <a:ext cx="4245480" cy="3021120"/>
+        <a:off x="16791120" y="170280"/>
+        <a:ext cx="4249800" cy="3020760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9447,9 +9267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9458,7 +9278,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12762360" y="45360"/>
-        <a:ext cx="3912480" cy="3014280"/>
+        <a:ext cx="3915720" cy="3013920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9477,9 +9297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>588240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9487,8 +9307,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21199320" y="156240"/>
-        <a:ext cx="4225320" cy="2755080"/>
+        <a:off x="21208320" y="156240"/>
+        <a:ext cx="4228560" cy="2754720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9512,9 +9332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9522,8 +9342,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16787520" y="170280"/>
-        <a:ext cx="4245480" cy="3021120"/>
+        <a:off x="16791120" y="170280"/>
+        <a:ext cx="4249800" cy="3020760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9542,9 +9362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9553,7 +9373,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12762360" y="45360"/>
-        <a:ext cx="3912480" cy="3014280"/>
+        <a:ext cx="3915720" cy="3013920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9572,9 +9392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>588240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9582,8 +9402,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21199320" y="156240"/>
-        <a:ext cx="4225320" cy="2755080"/>
+        <a:off x="21208320" y="156240"/>
+        <a:ext cx="4228560" cy="2754720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9607,7 +9427,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
@@ -10974,7 +10794,7 @@
       <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -12204,11 +12024,11 @@
       <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="13.36"/>
@@ -13432,14 +13252,14 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="17" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="13.36"/>
@@ -13581,15 +13401,9 @@
       <c r="K3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="35" t="n">
-        <v>69307</v>
-      </c>
-      <c r="M3" s="36" t="n">
-        <v>252</v>
-      </c>
-      <c r="N3" s="37" t="n">
-        <v>513822</v>
-      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="17" t="n">
         <f aca="false">F3/1000</f>
         <v>1.4525</v>
@@ -13632,15 +13446,9 @@
       <c r="K4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="35" t="n">
-        <v>59442</v>
-      </c>
-      <c r="M4" s="36" t="n">
-        <v>252</v>
-      </c>
-      <c r="N4" s="37" t="n">
-        <v>450450</v>
-      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="17" t="n">
         <f aca="false">F4/1000</f>
         <v>1.252484</v>
@@ -13683,15 +13491,9 @@
       <c r="K5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="35" t="n">
-        <v>52108</v>
-      </c>
-      <c r="M5" s="36" t="n">
-        <v>252</v>
-      </c>
-      <c r="N5" s="37" t="n">
-        <v>401676</v>
-      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="17" t="n">
         <f aca="false">F5/1000</f>
         <v>1.101962</v>
@@ -13734,15 +13536,9 @@
       <c r="K6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="35" t="n">
-        <v>48214</v>
-      </c>
-      <c r="M6" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N6" s="37" t="n">
-        <v>372360</v>
-      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="17" t="n">
         <f aca="false">F6/1000</f>
         <v>1.001883</v>
@@ -13786,15 +13582,9 @@
       <c r="K7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="35" t="n">
-        <v>44546</v>
-      </c>
-      <c r="M7" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N7" s="37" t="n">
-        <v>351648</v>
-      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="17" t="n">
         <f aca="false">F7/1000</f>
         <v>0.926463</v>
@@ -13837,15 +13627,9 @@
       <c r="K8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="35" t="n">
-        <v>40811</v>
-      </c>
-      <c r="M8" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N8" s="37" t="n">
-        <v>326706</v>
-      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="17" t="n">
         <f aca="false">F8/1000</f>
         <v>0.85125</v>
@@ -13888,15 +13672,9 @@
       <c r="K9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="35" t="n">
-        <v>38346</v>
-      </c>
-      <c r="M9" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N9" s="37" t="n">
-        <v>313248</v>
-      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="17" t="n">
         <f aca="false">F9/1000</f>
         <v>0.801585</v>
@@ -13939,15 +13717,9 @@
       <c r="K10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="35" t="n">
-        <v>35872</v>
-      </c>
-      <c r="M10" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N10" s="37" t="n">
-        <v>297270</v>
-      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="17" t="n">
         <f aca="false">F10/1000</f>
         <v>0.751282</v>
@@ -13991,15 +13763,9 @@
       <c r="K11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="35" t="n">
-        <v>34653</v>
-      </c>
-      <c r="M11" s="36" t="n">
-        <v>132</v>
-      </c>
-      <c r="N11" s="37" t="n">
-        <v>294756</v>
-      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="17" t="n">
         <f aca="false">F11/1000</f>
         <v>0.72631</v>
@@ -14042,15 +13808,9 @@
       <c r="K12" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="35" t="n">
-        <v>32362</v>
-      </c>
-      <c r="M12" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N12" s="37" t="n">
-        <v>274833</v>
-      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
       <c r="O12" s="17" t="n">
         <f aca="false">F12/1000</f>
         <v>0.676001</v>
@@ -14093,15 +13853,9 @@
       <c r="K13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="35" t="n">
-        <v>31148</v>
-      </c>
-      <c r="M13" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N13" s="37" t="n">
-        <v>269334</v>
-      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="17" t="n">
         <f aca="false">F13/1000</f>
         <v>0.651354</v>
@@ -14144,15 +13898,9 @@
       <c r="K14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="35" t="n">
-        <v>29882</v>
-      </c>
-      <c r="M14" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N14" s="37" t="n">
-        <v>262725</v>
-      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37"/>
       <c r="O14" s="17" t="n">
         <f aca="false">F14/1000</f>
         <v>0.626382</v>
@@ -14195,15 +13943,9 @@
       <c r="K15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="35" t="n">
-        <v>28627</v>
-      </c>
-      <c r="M15" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N15" s="37" t="n">
-        <v>255096</v>
-      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="17" t="n">
         <f aca="false">F15/1000</f>
         <v>0.601312</v>
@@ -14247,15 +13989,9 @@
       <c r="K16" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="35" t="n">
-        <v>28640</v>
-      </c>
-      <c r="M16" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N16" s="37" t="n">
-        <v>263736</v>
-      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
       <c r="O16" s="17" t="n">
         <f aca="false">F16/1000</f>
         <v>0.601175</v>
@@ -14299,15 +14035,9 @@
       <c r="K17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="35" t="n">
-        <v>27477</v>
-      </c>
-      <c r="M17" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N17" s="37" t="n">
-        <v>254472</v>
-      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="17" t="n">
         <f aca="false">F17/1000</f>
         <v>0.57575</v>
@@ -14350,15 +14080,9 @@
       <c r="K18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="35" t="n">
-        <v>26206</v>
-      </c>
-      <c r="M18" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N18" s="37" t="n">
-        <v>244398</v>
-      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="17" t="n">
         <f aca="false">F18/1000</f>
         <v>0.550625</v>
@@ -14402,15 +14126,9 @@
       <c r="K19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="35" t="n">
-        <v>26212</v>
-      </c>
-      <c r="M19" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N19" s="37" t="n">
-        <v>251658</v>
-      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="17" t="n">
         <f aca="false">F19/1000</f>
         <v>0.5513</v>
@@ -14453,15 +14171,9 @@
       <c r="K20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="35" t="n">
-        <v>24972</v>
-      </c>
-      <c r="M20" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N20" s="37" t="n">
-        <v>240219</v>
-      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="17" t="n">
         <f aca="false">F20/1000</f>
         <v>0.526325</v>
@@ -14505,15 +14217,9 @@
       <c r="K21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="35" t="n">
-        <v>24983</v>
-      </c>
-      <c r="M21" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N21" s="37" t="n">
-        <v>246834</v>
-      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="17" t="n">
         <f aca="false">F21/1000</f>
         <v>0.526048</v>
@@ -14557,15 +14263,9 @@
       <c r="K22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="35" t="n">
-        <v>23697</v>
-      </c>
-      <c r="M22" s="36" t="n">
-        <v>112</v>
-      </c>
-      <c r="N22" s="37" t="n">
-        <v>234180</v>
-      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="17" t="n">
         <f aca="false">F22/1000</f>
         <v>0.498597</v>
@@ -14610,13 +14310,13 @@
         <v>84</v>
       </c>
       <c r="L23" s="35" t="n">
-        <v>23676</v>
+        <v>23810</v>
       </c>
       <c r="M23" s="36" t="n">
         <v>112</v>
       </c>
       <c r="N23" s="37" t="n">
-        <v>236580</v>
+        <v>259280</v>
       </c>
       <c r="O23" s="17" t="n">
         <f aca="false">F23/1000</f>

--- a/Resultados Multicore.xlsx
+++ b/Resultados Multicore.xlsx
@@ -717,7 +717,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -943,8 +943,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="91008961"/>
-        <c:axId val="37478212"/>
+        <c:axId val="18340755"/>
+        <c:axId val="90070678"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1207,11 +1207,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14811437"/>
-        <c:axId val="11638567"/>
+        <c:axId val="36124790"/>
+        <c:axId val="79107067"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91008961"/>
+        <c:axId val="18340755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37478212"/>
+        <c:crossAx val="90070678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37478212"/>
+        <c:axId val="90070678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,13 +1368,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91008961"/>
+        <c:crossAx val="18340755"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="14811437"/>
+        <c:axId val="36124790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1406,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11638567"/>
+        <c:crossAx val="79107067"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11638567"/>
+        <c:axId val="79107067"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1484,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14811437"/>
+        <c:crossAx val="36124790"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1547,7 +1547,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1773,8 +1773,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="71347837"/>
-        <c:axId val="5366730"/>
+        <c:axId val="14813630"/>
+        <c:axId val="52533174"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2001,11 +2001,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64045010"/>
-        <c:axId val="32947993"/>
+        <c:axId val="60143711"/>
+        <c:axId val="70884889"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71347837"/>
+        <c:axId val="14813630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2071,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5366730"/>
+        <c:crossAx val="52533174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +2079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5366730"/>
+        <c:axId val="52533174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,13 +2162,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71347837"/>
+        <c:crossAx val="14813630"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="64045010"/>
+        <c:axId val="60143711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +2200,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32947993"/>
+        <c:crossAx val="70884889"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32947993"/>
+        <c:axId val="70884889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2270,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64045010"/>
+        <c:crossAx val="60143711"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2333,7 +2333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2518,11 +2518,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48181803"/>
-        <c:axId val="45689125"/>
+        <c:axId val="6897212"/>
+        <c:axId val="85903743"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48181803"/>
+        <c:axId val="6897212"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2590,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45689125"/>
+        <c:crossAx val="85903743"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45689125"/>
+        <c:axId val="85903743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +2681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48181803"/>
+        <c:crossAx val="6897212"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2711,7 +2711,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2932,11 +2932,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62603721"/>
-        <c:axId val="76537442"/>
+        <c:axId val="90889579"/>
+        <c:axId val="92848819"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62603721"/>
+        <c:axId val="90889579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3004,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76537442"/>
+        <c:crossAx val="92848819"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +3012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76537442"/>
+        <c:axId val="92848819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62603721"/>
+        <c:crossAx val="90889579"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,7 +3123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3349,8 +3349,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="62297466"/>
-        <c:axId val="46338492"/>
+        <c:axId val="21949164"/>
+        <c:axId val="4715347"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3577,11 +3577,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="76883409"/>
-        <c:axId val="50020654"/>
+        <c:axId val="63891746"/>
+        <c:axId val="85134469"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62297466"/>
+        <c:axId val="21949164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46338492"/>
+        <c:crossAx val="4715347"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,7 +3655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46338492"/>
+        <c:axId val="4715347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,12 +3738,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62297466"/>
+        <c:crossAx val="21949164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="76883409"/>
+        <c:axId val="63891746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,14 +3775,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50020654"/>
+        <c:crossAx val="85134469"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50020654"/>
+        <c:axId val="85134469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3853,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76883409"/>
+        <c:crossAx val="63891746"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,7 +3915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4141,8 +4141,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="72487722"/>
-        <c:axId val="28803578"/>
+        <c:axId val="77789394"/>
+        <c:axId val="97683127"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4405,11 +4405,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="96186709"/>
-        <c:axId val="47707695"/>
+        <c:axId val="56244050"/>
+        <c:axId val="17901072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72487722"/>
+        <c:axId val="77789394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +4475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28803578"/>
+        <c:crossAx val="97683127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +4483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28803578"/>
+        <c:axId val="97683127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,12 +4566,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72487722"/>
+        <c:crossAx val="77789394"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96186709"/>
+        <c:axId val="56244050"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,14 +4603,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47707695"/>
+        <c:crossAx val="17901072"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47707695"/>
+        <c:axId val="17901072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96186709"/>
+        <c:crossAx val="56244050"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4735,7 +4735,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4956,11 +4956,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="53645054"/>
-        <c:axId val="37027378"/>
+        <c:axId val="79219660"/>
+        <c:axId val="60403251"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53645054"/>
+        <c:axId val="79219660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37027378"/>
+        <c:crossAx val="60403251"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +5036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37027378"/>
+        <c:axId val="60403251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,7 +5119,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53645054"/>
+        <c:crossAx val="79219660"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5147,7 +5147,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5373,8 +5373,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="44593404"/>
-        <c:axId val="53710011"/>
+        <c:axId val="98609593"/>
+        <c:axId val="66696046"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5601,11 +5601,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="11882890"/>
-        <c:axId val="56795227"/>
+        <c:axId val="33403380"/>
+        <c:axId val="51848882"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44593404"/>
+        <c:axId val="98609593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,7 +5671,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53710011"/>
+        <c:crossAx val="66696046"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5679,7 +5679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53710011"/>
+        <c:axId val="66696046"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,12 +5762,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44593404"/>
+        <c:crossAx val="98609593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="11882890"/>
+        <c:axId val="33403380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,14 +5799,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56795227"/>
+        <c:crossAx val="51848882"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56795227"/>
+        <c:axId val="51848882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +5877,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11882890"/>
+        <c:crossAx val="33403380"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5939,7 +5939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6165,8 +6165,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="81090190"/>
-        <c:axId val="70926375"/>
+        <c:axId val="27868645"/>
+        <c:axId val="33124408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6429,11 +6429,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22649284"/>
-        <c:axId val="71701219"/>
+        <c:axId val="932082"/>
+        <c:axId val="278281"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81090190"/>
+        <c:axId val="27868645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6499,7 +6499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70926375"/>
+        <c:crossAx val="33124408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6507,7 +6507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70926375"/>
+        <c:axId val="33124408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,12 +6590,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81090190"/>
+        <c:crossAx val="27868645"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="22649284"/>
+        <c:axId val="932082"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,14 +6627,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71701219"/>
+        <c:crossAx val="278281"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71701219"/>
+        <c:axId val="278281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,7 +6697,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22649284"/>
+        <c:crossAx val="932082"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6759,7 +6759,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6980,11 +6980,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="8168800"/>
-        <c:axId val="68702193"/>
+        <c:axId val="70335096"/>
+        <c:axId val="54978613"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8168800"/>
+        <c:axId val="70335096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7052,7 +7052,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68702193"/>
+        <c:crossAx val="54978613"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7060,7 +7060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68702193"/>
+        <c:axId val="54978613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,7 +7143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8168800"/>
+        <c:crossAx val="70335096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7171,7 +7171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7397,8 +7397,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="13742825"/>
-        <c:axId val="54270548"/>
+        <c:axId val="98845493"/>
+        <c:axId val="77664846"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7625,11 +7625,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="48420810"/>
-        <c:axId val="13215352"/>
+        <c:axId val="61986619"/>
+        <c:axId val="80319934"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13742825"/>
+        <c:axId val="98845493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7695,7 +7695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54270548"/>
+        <c:crossAx val="77664846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7703,7 +7703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54270548"/>
+        <c:axId val="77664846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7786,12 +7786,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13742825"/>
+        <c:crossAx val="98845493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="48420810"/>
+        <c:axId val="61986619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7823,14 +7823,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13215352"/>
+        <c:crossAx val="80319934"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13215352"/>
+        <c:axId val="80319934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7901,7 +7901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48420810"/>
+        <c:crossAx val="61986619"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7963,7 +7963,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8126,8 +8126,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="70025098"/>
-        <c:axId val="84299406"/>
+        <c:axId val="10655471"/>
+        <c:axId val="94927587"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8327,11 +8327,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="7206594"/>
-        <c:axId val="46437200"/>
+        <c:axId val="81907941"/>
+        <c:axId val="86075719"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70025098"/>
+        <c:axId val="10655471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8397,7 +8397,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84299406"/>
+        <c:crossAx val="94927587"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8405,7 +8405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84299406"/>
+        <c:axId val="94927587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8488,12 +8488,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70025098"/>
+        <c:crossAx val="10655471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="7206594"/>
+        <c:axId val="81907941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,14 +8525,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46437200"/>
+        <c:crossAx val="86075719"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46437200"/>
+        <c:axId val="86075719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8595,7 +8595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7206594"/>
+        <c:crossAx val="81907941"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8657,7 +8657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8815,11 +8815,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="23455176"/>
-        <c:axId val="71451243"/>
+        <c:axId val="53435535"/>
+        <c:axId val="50557390"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="23455176"/>
+        <c:axId val="53435535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8887,7 +8887,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71451243"/>
+        <c:crossAx val="50557390"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8895,7 +8895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71451243"/>
+        <c:axId val="50557390"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8978,7 +8978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23455176"/>
+        <c:crossAx val="53435535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Resultados Multicore.xlsx
+++ b/Resultados Multicore.xlsx
@@ -259,22 +259,22 @@
     <t xml:space="preserve">14(14)</t>
   </si>
   <si>
-    <t xml:space="preserve">15(9)</t>
+    <t xml:space="preserve">15(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">16(2)</t>
+    <t xml:space="preserve">16(14)</t>
   </si>
   <si>
-    <t xml:space="preserve">17(14)</t>
+    <t xml:space="preserve">17(6)</t>
   </si>
   <si>
-    <t xml:space="preserve">18(4)</t>
+    <t xml:space="preserve">18(18)</t>
   </si>
   <si>
-    <t xml:space="preserve">19(15)</t>
+    <t xml:space="preserve">19(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">20(2)</t>
+    <t xml:space="preserve">20(18)</t>
   </si>
   <si>
     <t xml:space="preserve">21(4)</t>
@@ -717,7 +717,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -943,8 +943,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="18340755"/>
-        <c:axId val="90070678"/>
+        <c:axId val="71622301"/>
+        <c:axId val="50934587"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1207,11 +1207,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36124790"/>
-        <c:axId val="79107067"/>
+        <c:axId val="22256460"/>
+        <c:axId val="92353756"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="18340755"/>
+        <c:axId val="71622301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90070678"/>
+        <c:crossAx val="50934587"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1285,7 +1285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90070678"/>
+        <c:axId val="50934587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,13 +1368,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18340755"/>
+        <c:crossAx val="71622301"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36124790"/>
+        <c:axId val="22256460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,14 +1406,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79107067"/>
+        <c:crossAx val="92353756"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79107067"/>
+        <c:axId val="92353756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,8 +1449,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932663234452889"/>
-              <c:y val="0.0676043020919513"/>
+              <c:x val="0.932647563066373"/>
+              <c:y val="0.0673758865248227"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1484,7 +1484,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36124790"/>
+        <c:crossAx val="22256460"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1547,7 +1547,2308 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_float!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_float!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>65855524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54720176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47301106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41734840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38027450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34313020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32459600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30610360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28754278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26895732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25971244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25045348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24118176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23189860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22260532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21330324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21336902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20405176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20410984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19477960</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19540352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18605810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="33309991"/>
+        <c:axId val="90141181"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33309991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90141181"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90141181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33309991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="58214602"/>
+        <c:axId val="2977675"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de Atraso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.778125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.252484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.101962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.001883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.926463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.801585</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.751282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.676001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.651354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.626382</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.601312</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.601175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.575625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.551361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.526048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.525689</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="65403084"/>
+        <c:axId val="33291979"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58214602"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional [mhz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2977675"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2977675"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58214602"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="65403084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33291979"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33291979"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>tempo de atraso [microssegundos]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.932639417787933"/>
+              <c:y val="0.0672148730782982"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65403084"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.238795815970746"/>
+          <c:y val="0.105896366885051"/>
+          <c:w val="0.626807280149685"/>
+          <c:h val="0.12091970455087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="15">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="89319634"/>
+        <c:axId val="29139620"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ed7d31"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="31759459"/>
+        <c:axId val="15257818"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89319634"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional [mhz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29139620"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29139620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de elementos lógicos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89319634"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="31759459"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15257818"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15257818"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>número de multiplicadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31759459"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.286808118081181"/>
+          <c:y val="0.0703199617956065"/>
+          <c:w val="0.587415813266906"/>
+          <c:h val="0.146746268656716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="15">
+                  <c:v>264040</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>271975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>260810</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>276588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>259280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="67764778"/>
+        <c:axId val="23256289"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67764778"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>frequência operacional</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23256289"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23256289"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67764778"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1773,8 +4074,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="14813630"/>
-        <c:axId val="52533174"/>
+        <c:axId val="55159460"/>
+        <c:axId val="89965091"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2001,11 +4302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="60143711"/>
-        <c:axId val="70884889"/>
+        <c:axId val="80995320"/>
+        <c:axId val="75019073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14813630"/>
+        <c:axId val="55159460"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +4372,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52533174"/>
+        <c:crossAx val="89965091"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +4380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52533174"/>
+        <c:axId val="89965091"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,13 +4463,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14813630"/>
+        <c:crossAx val="55159460"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="60143711"/>
+        <c:axId val="80995320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,14 +4501,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70884889"/>
+        <c:crossAx val="75019073"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70884889"/>
+        <c:axId val="75019073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +4571,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60143711"/>
+        <c:crossAx val="80995320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2333,7 +4634,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2518,11 +4819,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="6897212"/>
-        <c:axId val="85903743"/>
+        <c:axId val="67195407"/>
+        <c:axId val="56154256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6897212"/>
+        <c:axId val="67195407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +4891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85903743"/>
+        <c:crossAx val="56154256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +4899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85903743"/>
+        <c:axId val="56154256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,7 +4982,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6897212"/>
+        <c:crossAx val="67195407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2711,7 +5012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2932,11 +5233,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90889579"/>
-        <c:axId val="92848819"/>
+        <c:axId val="46762165"/>
+        <c:axId val="79066625"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90889579"/>
+        <c:axId val="46762165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +5305,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92848819"/>
+        <c:crossAx val="79066625"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +5313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92848819"/>
+        <c:axId val="79066625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +5396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90889579"/>
+        <c:crossAx val="46762165"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,7 +5424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3349,8 +5650,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="21949164"/>
-        <c:axId val="4715347"/>
+        <c:axId val="38700749"/>
+        <c:axId val="53811582"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3577,11 +5878,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63891746"/>
-        <c:axId val="85134469"/>
+        <c:axId val="53096671"/>
+        <c:axId val="64317151"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="21949164"/>
+        <c:axId val="38700749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +5948,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4715347"/>
+        <c:crossAx val="53811582"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3655,7 +5956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4715347"/>
+        <c:axId val="53811582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,12 +6039,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21949164"/>
+        <c:crossAx val="38700749"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="63891746"/>
+        <c:axId val="53096671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,14 +6076,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85134469"/>
+        <c:crossAx val="64317151"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85134469"/>
+        <c:axId val="64317151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,8 +6119,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932649949169773"/>
-              <c:y val="0.0675643469971401"/>
+              <c:x val="0.932628015234871"/>
+              <c:y val="0.0673340483851746"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3853,7 +6154,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63891746"/>
+        <c:crossAx val="53096671"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,7 +6216,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4141,8 +6442,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="77789394"/>
-        <c:axId val="97683127"/>
+        <c:axId val="67960070"/>
+        <c:axId val="47704022"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4405,11 +6706,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="56244050"/>
-        <c:axId val="17901072"/>
+        <c:axId val="24059886"/>
+        <c:axId val="85724622"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77789394"/>
+        <c:axId val="67960070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4475,7 +6776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97683127"/>
+        <c:crossAx val="47704022"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4483,7 +6784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97683127"/>
+        <c:axId val="47704022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,12 +6867,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77789394"/>
+        <c:crossAx val="67960070"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="56244050"/>
+        <c:axId val="24059886"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4603,14 +6904,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17901072"/>
+        <c:crossAx val="85724622"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17901072"/>
+        <c:axId val="85724622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +6974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56244050"/>
+        <c:crossAx val="24059886"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4735,7 +7036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4956,11 +7257,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="79219660"/>
-        <c:axId val="60403251"/>
+        <c:axId val="2537431"/>
+        <c:axId val="14512736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79219660"/>
+        <c:axId val="2537431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +7329,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60403251"/>
+        <c:crossAx val="14512736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5036,7 +7337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60403251"/>
+        <c:axId val="14512736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,7 +7420,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79219660"/>
+        <c:crossAx val="2537431"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5147,7 +7448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5373,8 +7674,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="98609593"/>
-        <c:axId val="66696046"/>
+        <c:axId val="65455683"/>
+        <c:axId val="68603208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5601,11 +7902,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="33403380"/>
-        <c:axId val="51848882"/>
+        <c:axId val="18618207"/>
+        <c:axId val="30833832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98609593"/>
+        <c:axId val="65455683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5671,7 +7972,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66696046"/>
+        <c:crossAx val="68603208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5679,7 +7980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66696046"/>
+        <c:axId val="68603208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,12 +8063,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98609593"/>
+        <c:crossAx val="65455683"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33403380"/>
+        <c:axId val="18618207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,14 +8100,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51848882"/>
+        <c:crossAx val="30833832"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51848882"/>
+        <c:axId val="30833832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5842,8 +8143,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932661358631204"/>
-              <c:y val="0.0675643469971401"/>
+              <c:x val="0.932639417787933"/>
+              <c:y val="0.0673340483851746"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5877,7 +8178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33403380"/>
+        <c:crossAx val="18618207"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5939,7 +8240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6165,8 +8466,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="27868645"/>
-        <c:axId val="33124408"/>
+        <c:axId val="87327478"/>
+        <c:axId val="39796159"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6429,11 +8730,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="932082"/>
-        <c:axId val="278281"/>
+        <c:axId val="48316280"/>
+        <c:axId val="99765718"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27868645"/>
+        <c:axId val="87327478"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6499,7 +8800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33124408"/>
+        <c:crossAx val="39796159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6507,7 +8808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33124408"/>
+        <c:axId val="39796159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,12 +8891,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27868645"/>
+        <c:crossAx val="87327478"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="932082"/>
+        <c:axId val="48316280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,14 +8928,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278281"/>
+        <c:crossAx val="99765718"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278281"/>
+        <c:axId val="99765718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,7 +8998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="932082"/>
+        <c:crossAx val="48316280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6759,2253 +9060,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_float!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_float!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>65855524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54720176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47301106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41734840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38027450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34313020</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32459600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30610360</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28754278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26895732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25971244</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25045348</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24118176</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23189860</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22260532</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21330324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21336902</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20405176</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20410984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19477960</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19540352</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18605810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="70335096"/>
-        <c:axId val="54978613"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="70335096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="ed7d31">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54978613"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="54978613"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Bits de memória</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="70335096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Processadores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="a8b7df"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="9aabd9"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="426fbf"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$H$2:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="247"/>
-        <c:overlap val="0"/>
-        <c:axId val="98845493"/>
-        <c:axId val="77664846"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo de Atraso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$O$2:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.778125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4525</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.252484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.101962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.001883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.926463</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.801585</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.751282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72631</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.676001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.651354</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.626382</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.601312</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.601175</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.550625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5513</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.526325</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.526048</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.498597</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="61986619"/>
-        <c:axId val="80319934"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="98845493"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77664846"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77664846"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Número de processadores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98845493"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="61986619"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80319934"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="80319934"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>tempo de atraso [microssegundos]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.932661358631204"/>
-              <c:y val="0.0674451858913251"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61986619"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.238795815970746"/>
-          <c:y val="0.105896366885051"/>
-          <c:w val="0.626807280149685"/>
-          <c:h val="0.12091970455087"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elementos Lógicos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="a8b7df"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="9aabd9"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="426fbf"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$L$2:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="21">
-                  <c:v>23810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="247"/>
-        <c:overlap val="0"/>
-        <c:axId val="10655471"/>
-        <c:axId val="94927587"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multiplicadores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="4"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ed7d31"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$M$2:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="21">
-                  <c:v>112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="81907941"/>
-        <c:axId val="86075719"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10655471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94927587"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="94927587"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Número de elementos lógicos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10655471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="81907941"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="86075719"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86075719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>número de multiplicadores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81907941"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.286808118081181"/>
-          <c:y val="0.0703199617956065"/>
-          <c:w val="0.587415813266906"/>
-          <c:h val="0.146746268656716"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="21">
-                  <c:v>259280</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="53435535"/>
-        <c:axId val="50557390"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="53435535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="ed7d31">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50557390"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50557390"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Bits de memória</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53435535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -9017,9 +9071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9028,7 +9082,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13889880" y="47520"/>
-        <a:ext cx="4404960" cy="3045600"/>
+        <a:ext cx="4409280" cy="3045240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9047,9 +9101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9058,7 +9112,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13874040" y="2931120"/>
-        <a:ext cx="4706280" cy="3014280"/>
+        <a:ext cx="4710600" cy="3013920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9077,9 +9131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9087,8 +9141,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18408240" y="79200"/>
-        <a:ext cx="3328560" cy="2696400"/>
+        <a:off x="18412920" y="79200"/>
+        <a:ext cx="3328920" cy="2696040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9107,9 +9161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9117,8 +9171,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18715680" y="2628720"/>
-        <a:ext cx="4394160" cy="3017520"/>
+        <a:off x="18720360" y="2628720"/>
+        <a:ext cx="4395600" cy="3017160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9142,9 +9196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9152,8 +9206,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17574840" y="170280"/>
-        <a:ext cx="4249080" cy="3020760"/>
+        <a:off x="17580600" y="170280"/>
+        <a:ext cx="4253040" cy="3020400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9172,9 +9226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9182,8 +9236,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12900600" y="45360"/>
-        <a:ext cx="4561200" cy="3013920"/>
+        <a:off x="12903120" y="45360"/>
+        <a:ext cx="4564080" cy="3013560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9202,9 +9256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>587880</xdr:colOff>
+      <xdr:colOff>587520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9212,8 +9266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21992040" y="156240"/>
-        <a:ext cx="4228200" cy="2754720"/>
+        <a:off x="22002840" y="156240"/>
+        <a:ext cx="4231440" cy="2754360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9237,9 +9291,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9247,8 +9301,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16791120" y="170280"/>
-        <a:ext cx="4249800" cy="3020760"/>
+        <a:off x="16795080" y="170280"/>
+        <a:ext cx="4253760" cy="3020400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9267,9 +9321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9278,7 +9332,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12762360" y="45360"/>
-        <a:ext cx="3915720" cy="3013920"/>
+        <a:ext cx="3919320" cy="3013560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9297,9 +9351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>588240</xdr:colOff>
+      <xdr:colOff>587880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9307,8 +9361,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21208320" y="156240"/>
-        <a:ext cx="4228560" cy="2754720"/>
+        <a:off x="21217320" y="156240"/>
+        <a:ext cx="4231800" cy="2754360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9332,9 +9386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9342,8 +9396,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16791120" y="170280"/>
-        <a:ext cx="4249800" cy="3020760"/>
+        <a:off x="16795080" y="170280"/>
+        <a:ext cx="4253760" cy="3020400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9362,9 +9416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9373,7 +9427,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12762360" y="45360"/>
-        <a:ext cx="3915720" cy="3013920"/>
+        <a:ext cx="3919320" cy="3013560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9392,9 +9446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>588240</xdr:colOff>
+      <xdr:colOff>587880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9402,8 +9456,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21208320" y="156240"/>
-        <a:ext cx="4228560" cy="2754720"/>
+        <a:off x="21217320" y="156240"/>
+        <a:ext cx="4231800" cy="2754360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9427,7 +9481,7 @@
       <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
@@ -10794,7 +10848,7 @@
       <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -12024,7 +12078,7 @@
       <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
@@ -13252,10 +13306,10 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
@@ -14035,9 +14089,15 @@
       <c r="K17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
+      <c r="L17" s="35" t="n">
+        <v>27500</v>
+      </c>
+      <c r="M17" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N17" s="37" t="n">
+        <v>264040</v>
+      </c>
       <c r="O17" s="17" t="n">
         <f aca="false">F17/1000</f>
         <v>0.57575</v>
@@ -14061,13 +14121,13 @@
         <v>575</v>
       </c>
       <c r="F18" s="32" t="n">
-        <v>550.625</v>
+        <v>575.625</v>
       </c>
       <c r="G18" s="33" t="n">
         <v>29.375</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="17" t="n">
         <f aca="false">1/J18*1000000</f>
@@ -14080,12 +14140,18 @@
       <c r="K18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
+      <c r="L18" s="35" t="n">
+        <v>27503</v>
+      </c>
+      <c r="M18" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N18" s="37" t="n">
+        <v>271975</v>
+      </c>
       <c r="O18" s="17" t="n">
         <f aca="false">F18/1000</f>
-        <v>0.550625</v>
+        <v>0.575625</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14126,9 +14192,15 @@
       <c r="K19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
+      <c r="L19" s="35" t="n">
+        <v>26234</v>
+      </c>
+      <c r="M19" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N19" s="37" t="n">
+        <v>260810</v>
+      </c>
       <c r="O19" s="17" t="n">
         <f aca="false">F19/1000</f>
         <v>0.5513</v>
@@ -14152,13 +14224,13 @@
         <v>550.792</v>
       </c>
       <c r="F20" s="32" t="n">
-        <v>526.325</v>
+        <v>551.361</v>
       </c>
       <c r="G20" s="33" t="n">
         <v>29.019</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" s="17" t="n">
         <f aca="false">1/J20*1000000</f>
@@ -14171,12 +14243,18 @@
       <c r="K20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
+      <c r="L20" s="35" t="n">
+        <v>26279</v>
+      </c>
+      <c r="M20" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N20" s="37" t="n">
+        <v>279576</v>
+      </c>
       <c r="O20" s="17" t="n">
         <f aca="false">F20/1000</f>
-        <v>0.526325</v>
+        <v>0.551361</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14217,9 +14295,15 @@
       <c r="K21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
+      <c r="L21" s="35" t="n">
+        <v>25034</v>
+      </c>
+      <c r="M21" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N21" s="37" t="n">
+        <v>266532</v>
+      </c>
       <c r="O21" s="17" t="n">
         <f aca="false">F21/1000</f>
         <v>0.526048</v>
@@ -14243,7 +14327,7 @@
         <v>525.168</v>
       </c>
       <c r="F22" s="32" t="n">
-        <v>498.597</v>
+        <v>525.689</v>
       </c>
       <c r="G22" s="33" t="n">
         <v>28.655</v>
@@ -14263,12 +14347,18 @@
       <c r="K22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
+      <c r="L22" s="35" t="n">
+        <v>25050</v>
+      </c>
+      <c r="M22" s="36" t="n">
+        <v>112</v>
+      </c>
+      <c r="N22" s="37" t="n">
+        <v>276588</v>
+      </c>
       <c r="O22" s="17" t="n">
         <f aca="false">F22/1000</f>
-        <v>0.498597</v>
+        <v>0.525689</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Resultados Multicore.xlsx
+++ b/Resultados Multicore.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t xml:space="preserve">clocks</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">21(531)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">1 pulso</t>
@@ -723,7 +726,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -949,8 +952,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="75337933"/>
-        <c:axId val="42449676"/>
+        <c:axId val="30520857"/>
+        <c:axId val="26992808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1213,11 +1216,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="81386243"/>
-        <c:axId val="55037626"/>
+        <c:axId val="45359161"/>
+        <c:axId val="52982417"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75337933"/>
+        <c:axId val="30520857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1244,7 +1247,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>FREQUÊNCIA OPERACIONAL [mhz]</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1283,7 +1286,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42449676"/>
+        <c:crossAx val="26992808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42449676"/>
+        <c:axId val="26992808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,13 +1377,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75337933"/>
+        <c:crossAx val="30520857"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="81386243"/>
+        <c:axId val="45359161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,14 +1415,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55037626"/>
+        <c:crossAx val="52982417"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55037626"/>
+        <c:axId val="52982417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1449,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>Δt  [MICROSSEGUNDOS]</a:t>
+                  <a:t>Tempo de atraso [microssegundos]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1455,8 +1458,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932626427406199"/>
-              <c:y val="0.0671474169523584"/>
+              <c:x val="0.932620477515746"/>
+              <c:y val="0.0668931277763261"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1490,7 +1493,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81386243"/>
+        <c:crossAx val="45359161"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -1553,7 +1556,2443 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_float!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_float!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>65855524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54720176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47301106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41734840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38027450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34313020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32459600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30610360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28754278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26895732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25971244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25045348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24118176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23189860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22260532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21330324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21336902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20405176</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20410984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19477960</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19540352</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18605810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="98797548"/>
+        <c:axId val="86435143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98797548"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Frequência operacional [MHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86435143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="86435143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98797548"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="32627400"/>
+        <c:axId val="6152622"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo de Atraso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$O$2:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.803125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.255424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.026891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.951465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.826599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.701005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.676374</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.651406</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.626336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.601175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.575625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5513</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.551361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.526048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.525689</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="50588481"/>
+        <c:axId val="83816076"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="32627400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Frequência operacional [MHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6152622"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="6152622"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32627400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="50588481"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83816076"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83816076"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Tempo de atraso [microssegundos]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.932583443611234"/>
+              <c:y val="0.0667540827273811"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50588481"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.238795815970746"/>
+          <c:y val="0.105896366885051"/>
+          <c:w val="0.626807280149685"/>
+          <c:h val="0.12091970455087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elementos Lógicos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="a8b7df"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="9aabd9"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000"/>
+            </a:gradFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="426fbf"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$L$2:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>84993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26279</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25050</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="247"/>
+        <c:overlap val="0"/>
+        <c:axId val="79745057"/>
+        <c:axId val="95805471"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RN_taylor!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiplicadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ed7d31"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$M$2:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="27886235"/>
+        <c:axId val="40445552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79745057"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Frequência operacional [MHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95805471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95805471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de elementos lógicos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79745057"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="27886235"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="8b8b8b"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="40445552"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40445552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Número de multiplicadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27886235"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.286808118081181"/>
+          <c:y val="0.0703199617956065"/>
+          <c:w val="0.587415813266906"/>
+          <c:h val="0.146746268656716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ed7d31"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="15840">
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RN_taylor!$B$2:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RN_taylor!$N$2:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>665640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>565500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>485265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>403645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>382090</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306820</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302540</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>286000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>282500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>273720</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264040</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>271975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>260810</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>266532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>276588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>259280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="60237981"/>
+        <c:axId val="96010881"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60237981"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Frequência operacional [MHz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="ed7d31">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96010881"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96010881"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="f2f2f2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Bits de memória</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60237981"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1779,8 +4218,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="82920672"/>
-        <c:axId val="29820247"/>
+        <c:axId val="11269160"/>
+        <c:axId val="12043612"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2007,11 +4446,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16696192"/>
-        <c:axId val="18257518"/>
+        <c:axId val="78160333"/>
+        <c:axId val="9040095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82920672"/>
+        <c:axId val="11269160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +4477,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2077,7 +4516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29820247"/>
+        <c:crossAx val="12043612"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2085,7 +4524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29820247"/>
+        <c:axId val="12043612"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +4571,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>elementos lógicos</a:t>
+                  <a:t>Elementos lógicos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2168,13 +4607,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82920672"/>
+        <c:crossAx val="11269160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="16696192"/>
+        <c:axId val="78160333"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,14 +4645,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18257518"/>
+        <c:crossAx val="9040095"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18257518"/>
+        <c:axId val="9040095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +4679,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>multiplicadores</a:t>
+                  <a:t>Multiplicadores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2276,7 +4715,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16696192"/>
+        <c:crossAx val="78160333"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
@@ -2339,7 +4778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2524,11 +4963,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54086046"/>
-        <c:axId val="78040304"/>
+        <c:axId val="7111573"/>
+        <c:axId val="93025073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54086046"/>
+        <c:axId val="7111573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +5035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78040304"/>
+        <c:crossAx val="93025073"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2604,7 +5043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78040304"/>
+        <c:axId val="93025073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +5126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54086046"/>
+        <c:crossAx val="7111573"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2717,7 +5156,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2938,11 +5377,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="77837078"/>
-        <c:axId val="9861177"/>
+        <c:axId val="75316047"/>
+        <c:axId val="68690005"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77837078"/>
+        <c:axId val="75316047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +5408,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3010,7 +5449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9861177"/>
+        <c:crossAx val="68690005"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3018,7 +5457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9861177"/>
+        <c:axId val="68690005"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +5504,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>BITS de memória</a:t>
+                  <a:t>Bits de memória</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3101,7 +5540,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77837078"/>
+        <c:crossAx val="75316047"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,13 +5568,24 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.139520148686323"/>
+          <c:y val="0.0760014306151645"/>
+          <c:w val="0.738616203429923"/>
+          <c:h val="0.653910348116357"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3174,7 +5624,54 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="a8b7df"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="9aabd9"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="426fbf"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -3355,8 +5852,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="6093571"/>
-        <c:axId val="70493887"/>
+        <c:axId val="81433345"/>
+        <c:axId val="13538196"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3583,11 +6080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44444080"/>
-        <c:axId val="42654162"/>
+        <c:axId val="57494702"/>
+        <c:axId val="71337880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6093571"/>
+        <c:axId val="81433345"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +6111,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3653,7 +6150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70493887"/>
+        <c:crossAx val="13538196"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3661,7 +6158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70493887"/>
+        <c:axId val="13538196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3744,12 +6241,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6093571"/>
+        <c:crossAx val="81433345"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="44444080"/>
+        <c:axId val="57494702"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,14 +6278,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42654162"/>
+        <c:crossAx val="71337880"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42654162"/>
+        <c:axId val="71337880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +6312,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>tempo de atraso [microssegundos]</a:t>
+                  <a:t>Tempo de atraso [microssegundos]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3824,8 +6321,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932606122103839"/>
-              <c:y val="0.067103694874851"/>
+              <c:x val="0.932584269662921"/>
+              <c:y val="0.0668732864465371"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3859,7 +6356,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44444080"/>
+        <c:crossAx val="57494702"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3921,7 +6418,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4147,8 +6644,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="46041110"/>
-        <c:axId val="24238369"/>
+        <c:axId val="8203714"/>
+        <c:axId val="64154028"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4411,11 +6908,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72267220"/>
-        <c:axId val="89802733"/>
+        <c:axId val="14571043"/>
+        <c:axId val="25587219"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46041110"/>
+        <c:axId val="8203714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,7 +6939,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4481,7 +6978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24238369"/>
+        <c:crossAx val="64154028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4489,7 +6986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24238369"/>
+        <c:axId val="64154028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,12 +7069,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46041110"/>
+        <c:crossAx val="8203714"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="72267220"/>
+        <c:axId val="14571043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,14 +7106,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89802733"/>
+        <c:crossAx val="25587219"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89802733"/>
+        <c:axId val="25587219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +7140,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>número de multiplicadores</a:t>
+                  <a:t>Número de multiplicadores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4679,7 +7176,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72267220"/>
+        <c:crossAx val="14571043"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4741,7 +7238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4962,11 +7459,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="68865865"/>
-        <c:axId val="13672373"/>
+        <c:axId val="58358861"/>
+        <c:axId val="26496323"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68865865"/>
+        <c:axId val="58358861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4993,7 +7490,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>frequência operacional</a:t>
+                  <a:t>Frequência operacional [MHz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5034,7 +7531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13672373"/>
+        <c:crossAx val="26496323"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5042,7 +7539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13672373"/>
+        <c:axId val="26496323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5125,7 +7622,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68865865"/>
+        <c:crossAx val="58358861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5153,7 +7650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5379,8 +7876,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="41171037"/>
-        <c:axId val="59228189"/>
+        <c:axId val="5422881"/>
+        <c:axId val="65707342"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5607,11 +8104,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62141647"/>
-        <c:axId val="2382197"/>
+        <c:axId val="5576934"/>
+        <c:axId val="17252514"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41171037"/>
+        <c:axId val="5422881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5677,7 +8174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59228189"/>
+        <c:crossAx val="65707342"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5685,7 +8182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59228189"/>
+        <c:axId val="65707342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,12 +8265,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41171037"/>
+        <c:crossAx val="5422881"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="62141647"/>
+        <c:axId val="5576934"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5805,14 +8302,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2382197"/>
+        <c:crossAx val="17252514"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2382197"/>
+        <c:axId val="17252514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,8 +8345,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.932617517754481"/>
-              <c:y val="0.067103694874851"/>
+              <c:x val="0.932609811542128"/>
+              <c:y val="0.0668732864465371"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5883,7 +8380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62141647"/>
+        <c:crossAx val="5576934"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5945,7 +8442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6171,8 +8668,8 @@
         </c:ser>
         <c:gapWidth val="247"/>
         <c:overlap val="0"/>
-        <c:axId val="33715722"/>
-        <c:axId val="56246600"/>
+        <c:axId val="44402414"/>
+        <c:axId val="20280104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6435,11 +8932,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="24369959"/>
-        <c:axId val="74963320"/>
+        <c:axId val="999322"/>
+        <c:axId val="12285848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33715722"/>
+        <c:axId val="44402414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,7 +9002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56246600"/>
+        <c:crossAx val="20280104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6513,7 +9010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56246600"/>
+        <c:axId val="20280104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,12 +9093,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33715722"/>
+        <c:crossAx val="44402414"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="24369959"/>
+        <c:axId val="999322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,14 +9130,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74963320"/>
+        <c:crossAx val="12285848"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74963320"/>
+        <c:axId val="12285848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +9200,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24369959"/>
+        <c:crossAx val="999322"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6765,2456 +9262,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_float!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_float!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>65855524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54720176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47301106</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41734840</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38027450</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34313020</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32459600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30610360</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28754278</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26895732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25971244</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25045348</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24118176</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23189860</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22260532</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21330324</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21336902</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20405176</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20410984</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19477960</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19540352</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18605810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="27377276"/>
-        <c:axId val="83343616"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="27377276"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="ed7d31">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83343616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83343616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Bits de memória</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27377276"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Processadores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="a8b7df"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="9aabd9"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="426fbf"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$H$2:$H$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="247"/>
-        <c:overlap val="0"/>
-        <c:axId val="44923086"/>
-        <c:axId val="45065935"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo de Atraso</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$O$2:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.803125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.255424</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.15197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.026891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.951465</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.826599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72631</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.701005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.676374</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.651406</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.626336</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.601175</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.575625</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5513</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.551361</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.526048</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.525689</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="68850025"/>
-        <c:axId val="6881698"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="44923086"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45065935"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="45065935"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Número de processadores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44923086"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="68850025"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6881698"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="6881698"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>tempo de atraso [microssegundos]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.932617517754481"/>
-              <c:y val="0.066984505363528"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68850025"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.238795815970746"/>
-          <c:y val="0.105896366885051"/>
-          <c:w val="0.626807280149685"/>
-          <c:h val="0.12091970455087"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elementos Lógicos</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="a8b7df"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="9aabd9"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="426fbf"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$L$2:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>84993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71887</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60766</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49527</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45805</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39617</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34682</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33668</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>31174</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31177</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29899</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28664</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27503</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>26234</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26279</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25034</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25050</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23810</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="247"/>
-        <c:overlap val="0"/>
-        <c:axId val="30533117"/>
-        <c:axId val="59335509"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>RN_taylor!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Multiplicadores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="4"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ed7d31"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:txPr>
-                <a:bodyPr wrap="none"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$M$2:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="56900121"/>
-        <c:axId val="86873681"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="30533117"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional [mhz]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59335509"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="59335509"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Número de elementos lógicos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30533117"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="56900121"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="8b8b8b"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="86873681"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="86873681"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>número de multiplicadores</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56900121"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.286808118081181"/>
-          <c:y val="0.0703199617956065"/>
-          <c:w val="0.587415813266906"/>
-          <c:h val="0.146746268656716"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="15840">
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>RN_taylor!$B$2:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RN_taylor!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>665640</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>565500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>485265</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>448730</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>403645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>382090</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>356125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>325655</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>306820</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>302540</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>286000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>282500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>273720</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>264040</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>271975</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>260810</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>279576</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>266532</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>276588</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>259280</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="80407199"/>
-        <c:axId val="50536445"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="80407199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>frequência operacional</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="ed7d31">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50536445"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50536445"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="f2f2f2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="pt-BR" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Bits de memória</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80407199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>599040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9222,8 +9283,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13889880" y="47520"/>
-        <a:ext cx="4413240" cy="3044880"/>
+        <a:off x="20684880" y="0"/>
+        <a:ext cx="4915080" cy="2755080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9235,16 +9296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>31680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9252,8 +9313,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13874040" y="2931120"/>
-        <a:ext cx="4714560" cy="3013560"/>
+        <a:off x="20707560" y="3044160"/>
+        <a:ext cx="4995720" cy="3013200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9265,16 +9326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>543600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9282,8 +9343,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18417240" y="79200"/>
-        <a:ext cx="3329280" cy="2695680"/>
+        <a:off x="15261480" y="115560"/>
+        <a:ext cx="4870440" cy="3038760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9295,16 +9356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>531000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9312,8 +9373,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18724680" y="2628720"/>
-        <a:ext cx="4397400" cy="3016800"/>
+        <a:off x="26230320" y="0"/>
+        <a:ext cx="4862520" cy="2878920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9330,16 +9391,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>565920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>502560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>555120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9347,8 +9408,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17586360" y="170280"/>
-        <a:ext cx="4257000" cy="3020040"/>
+        <a:off x="13947120" y="2944080"/>
+        <a:ext cx="4869720" cy="3019680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9360,16 +9421,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>90720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9377,8 +9438,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12905640" y="45360"/>
-        <a:ext cx="4566960" cy="3013200"/>
+        <a:off x="13946400" y="0"/>
+        <a:ext cx="5023800" cy="3012840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9390,16 +9451,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>579600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9407,8 +9468,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="22013640" y="156240"/>
-        <a:ext cx="4235040" cy="2754000"/>
+        <a:off x="19528200" y="1440"/>
+        <a:ext cx="4874040" cy="2753640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9425,16 +9486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>565920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9442,8 +9503,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16799040" y="170280"/>
-        <a:ext cx="4257720" cy="3020040"/>
+        <a:off x="13157640" y="3187080"/>
+        <a:ext cx="4908960" cy="3019680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9455,16 +9516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9472,8 +9533,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12762360" y="45360"/>
-        <a:ext cx="3922920" cy="3013200"/>
+        <a:off x="13157280" y="57600"/>
+        <a:ext cx="5115960" cy="3012840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9485,16 +9546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>594720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9502,8 +9563,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21226320" y="156240"/>
-        <a:ext cx="4235400" cy="2754000"/>
+        <a:off x="18714240" y="31320"/>
+        <a:ext cx="4913640" cy="2753640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9520,16 +9581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>565920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>615600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>569160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9537,8 +9598,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16785000" y="170280"/>
-        <a:ext cx="4257720" cy="3020040"/>
+        <a:off x="13131360" y="3187080"/>
+        <a:ext cx="4896360" cy="3019680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9551,15 +9612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:colOff>527400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>569160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9567,8 +9628,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12748320" y="45360"/>
-        <a:ext cx="3922920" cy="3013200"/>
+        <a:off x="13043160" y="45360"/>
+        <a:ext cx="4984560" cy="3012840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9580,16 +9641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>55440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9597,8 +9658,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21212280" y="156240"/>
-        <a:ext cx="4235400" cy="2754000"/>
+        <a:off x="18131760" y="56160"/>
+        <a:ext cx="4863600" cy="2985480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9618,11 +9679,11 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM21" activeCellId="0" sqref="AM21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
@@ -10964,7 +11025,11 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10985,11 +11050,11 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD20" activeCellId="0" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.88"/>
@@ -11016,13 +11081,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -11049,7 +11114,7 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12215,11 +12280,11 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U23" activeCellId="0" sqref="U23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH20" activeCellId="0" sqref="AH20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
@@ -12247,13 +12312,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -12268,7 +12333,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -12280,7 +12345,7 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12319,7 +12384,7 @@
         <v>3125</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="25" t="n">
         <v>99743</v>
@@ -12371,7 +12436,7 @@
         <v>2500</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" s="25" t="n">
         <v>85105</v>
@@ -12423,7 +12488,7 @@
         <v>2084</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="25" t="n">
         <v>74162</v>
@@ -12475,7 +12540,7 @@
         <v>1786</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" s="25" t="n">
         <v>65890</v>
@@ -12527,7 +12592,7 @@
         <v>1563</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="25" t="n">
         <v>60042</v>
@@ -12579,7 +12644,7 @@
         <v>1389</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="25" t="n">
         <v>54748</v>
@@ -12631,7 +12696,7 @@
         <v>1250</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="25" t="n">
         <v>52099</v>
@@ -12683,7 +12748,7 @@
         <v>1137</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="25" t="n">
         <v>49497</v>
@@ -12735,7 +12800,7 @@
         <v>1042</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="25" t="n">
         <v>46763</v>
@@ -12787,7 +12852,7 @@
         <v>962</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" s="25" t="n">
         <v>44530</v>
@@ -12839,7 +12904,7 @@
         <v>893</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="25" t="n">
         <v>43085</v>
@@ -12891,7 +12956,7 @@
         <v>834</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L13" s="25" t="n">
         <v>41912</v>
@@ -12943,7 +13008,7 @@
         <v>782</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="25" t="n">
         <v>40116</v>
@@ -12995,7 +13060,7 @@
         <v>736</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="25" t="n">
         <v>38959</v>
@@ -13047,7 +13112,7 @@
         <v>695</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="25" t="n">
         <v>37280</v>
@@ -13099,7 +13164,7 @@
         <v>658</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" s="25" t="n">
         <v>35827</v>
@@ -13151,7 +13216,7 @@
         <v>625</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L18" s="25" t="n">
         <v>35830</v>
@@ -13203,7 +13268,7 @@
         <v>596</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L19" s="25" t="n">
         <v>34904</v>
@@ -13255,7 +13320,7 @@
         <v>569</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" s="25" t="n">
         <v>34908</v>
@@ -13307,7 +13372,7 @@
         <v>544</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="25" t="n">
         <v>33703</v>
@@ -13359,7 +13424,7 @@
         <v>521</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L22" s="25" t="n">
         <v>31225</v>
@@ -13411,7 +13476,7 @@
         <v>500</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L23" s="25" t="n">
         <v>29894</v>
@@ -13446,11 +13511,11 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC22" activeCellId="0" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="6.94"/>
@@ -13479,13 +13544,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -13500,7 +13565,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
@@ -13512,7 +13577,7 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13550,7 +13615,7 @@
         <v>3125</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L2" s="35" t="n">
         <v>84993</v>
@@ -13601,7 +13666,7 @@
         <v>2500</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L3" s="35" t="n">
         <v>71887</v>
@@ -13652,7 +13717,7 @@
         <v>2084</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="35" t="n">
         <v>60766</v>
@@ -13703,7 +13768,7 @@
         <v>1786</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" s="35" t="n">
         <v>54572</v>
@@ -13754,7 +13819,7 @@
         <v>1563</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" s="35" t="n">
         <v>49527</v>
@@ -13805,7 +13870,7 @@
         <v>1389</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L7" s="35" t="n">
         <v>45805</v>
@@ -13856,7 +13921,7 @@
         <v>1250</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" s="35" t="n">
         <v>42110</v>
@@ -13907,7 +13972,7 @@
         <v>1137</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9" s="35" t="n">
         <v>39617</v>
@@ -13958,7 +14023,7 @@
         <v>1042</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="35" t="n">
         <v>37132</v>
@@ -14010,7 +14075,7 @@
         <v>962</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="35" t="n">
         <v>34682</v>
@@ -14061,7 +14126,7 @@
         <v>893</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="35" t="n">
         <v>33668</v>
@@ -14112,7 +14177,7 @@
         <v>834</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="35" t="n">
         <v>31174</v>
@@ -14163,7 +14228,7 @@
         <v>782</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" s="35" t="n">
         <v>31177</v>
@@ -14214,7 +14279,7 @@
         <v>736</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" s="35" t="n">
         <v>29899</v>
@@ -14266,7 +14331,7 @@
         <v>695</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="35" t="n">
         <v>28664</v>
@@ -14318,7 +14383,7 @@
         <v>658</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="35" t="n">
         <v>27500</v>
@@ -14369,7 +14434,7 @@
         <v>625</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" s="35" t="n">
         <v>27503</v>
@@ -14421,7 +14486,7 @@
         <v>596</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" s="35" t="n">
         <v>26234</v>
@@ -14472,7 +14537,7 @@
         <v>569</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="35" t="n">
         <v>26279</v>
@@ -14524,7 +14589,7 @@
         <v>544</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="35" t="n">
         <v>25034</v>
@@ -14576,7 +14641,7 @@
         <v>521</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" s="35" t="n">
         <v>25050</v>
@@ -14628,7 +14693,7 @@
         <v>500</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L23" s="35" t="n">
         <v>23810</v>
